--- a/Documentation/2023.05.26_Nonnenmacher_Enzo_Planning.xlsx
+++ b/Documentation/2023.05.26_Nonnenmacher_Enzo_Planning.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Planification Initiale" sheetId="1" r:id="rId1"/>
+    <sheet name="Planning" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
   <si>
     <t>TITRE DU PROJET</t>
   </si>
@@ -1506,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2005,22 +2005,84 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2038,71 +2100,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2390,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:BL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2490,35 +2487,35 @@
     </row>
     <row r="2" spans="1:64" ht="27" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="209"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
@@ -2624,16 +2621,16 @@
     </row>
     <row r="4" spans="1:64" ht="22.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="192" t="s">
+      <c r="C4" s="213"/>
+      <c r="D4" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
       <c r="H4" s="15"/>
       <c r="I4" s="62" t="s">
         <v>1</v>
@@ -2698,27 +2695,27 @@
     </row>
     <row r="5" spans="1:64" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="191"/>
-      <c r="D5" s="193" t="s">
+      <c r="C5" s="213"/>
+      <c r="D5" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="215" t="s">
+      <c r="I5" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="215"/>
+      <c r="J5" s="189"/>
       <c r="K5" s="61"/>
-      <c r="L5" s="216">
+      <c r="L5" s="190">
         <v>45072</v>
       </c>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
       <c r="O5" s="61"/>
       <c r="P5" s="61"/>
       <c r="Q5" s="61"/>
@@ -2904,166 +2901,166 @@
     </row>
     <row r="8" spans="1:64" ht="17.25" customHeight="1">
       <c r="A8" s="23"/>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="181" t="s">
+      <c r="D8" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="181" t="s">
+      <c r="E8" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="181" t="s">
+      <c r="F8" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="181" t="s">
+      <c r="G8" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="181" t="s">
+      <c r="H8" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="203" t="s">
+      <c r="I8" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="204"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
       <c r="AB8" s="46"/>
-      <c r="AH8" s="198"/>
-      <c r="AI8" s="197"/>
-      <c r="AJ8" s="197"/>
-      <c r="AK8" s="197"/>
-      <c r="AL8" s="197"/>
-      <c r="AM8" s="197"/>
-      <c r="AN8" s="197"/>
-      <c r="AO8" s="197"/>
-      <c r="AP8" s="197"/>
-      <c r="AQ8" s="197"/>
-      <c r="AR8" s="197"/>
-      <c r="AS8" s="197"/>
-      <c r="AT8" s="197"/>
-      <c r="AU8" s="197"/>
-      <c r="AV8" s="197"/>
-      <c r="AW8" s="196"/>
-      <c r="AX8" s="197"/>
-      <c r="AY8" s="197"/>
-      <c r="AZ8" s="197"/>
-      <c r="BA8" s="197"/>
-      <c r="BB8" s="197"/>
-      <c r="BC8" s="197"/>
-      <c r="BD8" s="197"/>
-      <c r="BE8" s="197"/>
-      <c r="BF8" s="197"/>
-      <c r="BG8" s="197"/>
-      <c r="BH8" s="197"/>
-      <c r="BI8" s="197"/>
-      <c r="BJ8" s="197"/>
-      <c r="BK8" s="195"/>
+      <c r="AH8" s="204"/>
+      <c r="AI8" s="203"/>
+      <c r="AJ8" s="203"/>
+      <c r="AK8" s="203"/>
+      <c r="AL8" s="203"/>
+      <c r="AM8" s="203"/>
+      <c r="AN8" s="203"/>
+      <c r="AO8" s="203"/>
+      <c r="AP8" s="203"/>
+      <c r="AQ8" s="203"/>
+      <c r="AR8" s="203"/>
+      <c r="AS8" s="203"/>
+      <c r="AT8" s="203"/>
+      <c r="AU8" s="203"/>
+      <c r="AV8" s="203"/>
+      <c r="AW8" s="202"/>
+      <c r="AX8" s="203"/>
+      <c r="AY8" s="203"/>
+      <c r="AZ8" s="203"/>
+      <c r="BA8" s="203"/>
+      <c r="BB8" s="203"/>
+      <c r="BC8" s="203"/>
+      <c r="BD8" s="203"/>
+      <c r="BE8" s="203"/>
+      <c r="BF8" s="203"/>
+      <c r="BG8" s="203"/>
+      <c r="BH8" s="203"/>
+      <c r="BI8" s="203"/>
+      <c r="BJ8" s="203"/>
+      <c r="BK8" s="197"/>
       <c r="BL8" s="20"/>
     </row>
     <row r="9" spans="1:64" ht="17.25" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="184" t="s">
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="183"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="183" t="s">
+      <c r="J9" s="199"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="184" t="s">
+      <c r="M9" s="199"/>
+      <c r="N9" s="199"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="183"/>
-      <c r="R9" s="183"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="200" t="s">
+      <c r="Q9" s="199"/>
+      <c r="R9" s="199"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="U9" s="201"/>
-      <c r="V9" s="201"/>
-      <c r="W9" s="201"/>
-      <c r="X9" s="200" t="s">
+      <c r="U9" s="192"/>
+      <c r="V9" s="192"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="201"/>
-      <c r="Z9" s="201"/>
-      <c r="AA9" s="202"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="192"/>
+      <c r="AA9" s="193"/>
       <c r="AB9" s="47"/>
-      <c r="AC9" s="205"/>
-      <c r="AD9" s="195"/>
-      <c r="AE9" s="195"/>
-      <c r="AF9" s="195"/>
-      <c r="AG9" s="195"/>
-      <c r="AH9" s="199"/>
-      <c r="AI9" s="195"/>
-      <c r="AJ9" s="195"/>
-      <c r="AK9" s="195"/>
-      <c r="AL9" s="195"/>
-      <c r="AM9" s="199"/>
-      <c r="AN9" s="195"/>
-      <c r="AO9" s="195"/>
-      <c r="AP9" s="195"/>
-      <c r="AQ9" s="195"/>
-      <c r="AR9" s="199"/>
-      <c r="AS9" s="195"/>
-      <c r="AT9" s="195"/>
-      <c r="AU9" s="195"/>
-      <c r="AV9" s="195"/>
-      <c r="AW9" s="194"/>
-      <c r="AX9" s="195"/>
-      <c r="AY9" s="195"/>
-      <c r="AZ9" s="195"/>
-      <c r="BA9" s="195"/>
-      <c r="BB9" s="194"/>
-      <c r="BC9" s="195"/>
-      <c r="BD9" s="195"/>
-      <c r="BE9" s="195"/>
-      <c r="BF9" s="195"/>
-      <c r="BG9" s="194"/>
-      <c r="BH9" s="195"/>
-      <c r="BI9" s="195"/>
-      <c r="BJ9" s="195"/>
-      <c r="BK9" s="195"/>
+      <c r="AC9" s="196"/>
+      <c r="AD9" s="197"/>
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="197"/>
+      <c r="AG9" s="197"/>
+      <c r="AH9" s="205"/>
+      <c r="AI9" s="197"/>
+      <c r="AJ9" s="197"/>
+      <c r="AK9" s="197"/>
+      <c r="AL9" s="197"/>
+      <c r="AM9" s="205"/>
+      <c r="AN9" s="197"/>
+      <c r="AO9" s="197"/>
+      <c r="AP9" s="197"/>
+      <c r="AQ9" s="197"/>
+      <c r="AR9" s="205"/>
+      <c r="AS9" s="197"/>
+      <c r="AT9" s="197"/>
+      <c r="AU9" s="197"/>
+      <c r="AV9" s="197"/>
+      <c r="AW9" s="201"/>
+      <c r="AX9" s="197"/>
+      <c r="AY9" s="197"/>
+      <c r="AZ9" s="197"/>
+      <c r="BA9" s="197"/>
+      <c r="BB9" s="201"/>
+      <c r="BC9" s="197"/>
+      <c r="BD9" s="197"/>
+      <c r="BE9" s="197"/>
+      <c r="BF9" s="197"/>
+      <c r="BG9" s="201"/>
+      <c r="BH9" s="197"/>
+      <c r="BI9" s="197"/>
+      <c r="BJ9" s="197"/>
+      <c r="BK9" s="197"/>
       <c r="BL9" s="24"/>
     </row>
     <row r="10" spans="1:64" ht="17.25" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
       <c r="I10" s="26" t="s">
         <v>17</v>
       </c>
@@ -3188,15 +3185,15 @@
       <c r="O11" s="66"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="66"/>
-      <c r="R11" s="206" t="s">
+      <c r="R11" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="207"/>
+      <c r="S11" s="181"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
-      <c r="X11" s="212" t="s">
+      <c r="X11" s="186" t="s">
         <v>49</v>
       </c>
       <c r="Y11" s="66"/>
@@ -3274,13 +3271,13 @@
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="108"/>
-      <c r="R12" s="208"/>
-      <c r="S12" s="209"/>
+      <c r="R12" s="182"/>
+      <c r="S12" s="183"/>
       <c r="T12" s="114"/>
       <c r="U12" s="115"/>
       <c r="V12" s="115"/>
       <c r="W12" s="116"/>
-      <c r="X12" s="213"/>
+      <c r="X12" s="187"/>
       <c r="Y12" s="123"/>
       <c r="Z12" s="124"/>
       <c r="AA12" s="124"/>
@@ -3356,13 +3353,13 @@
       <c r="O13" s="89"/>
       <c r="P13" s="89"/>
       <c r="Q13" s="111"/>
-      <c r="R13" s="208"/>
-      <c r="S13" s="209"/>
+      <c r="R13" s="182"/>
+      <c r="S13" s="183"/>
       <c r="T13" s="117"/>
       <c r="U13" s="118"/>
       <c r="V13" s="118"/>
       <c r="W13" s="119"/>
-      <c r="X13" s="213"/>
+      <c r="X13" s="187"/>
       <c r="Y13" s="125"/>
       <c r="Z13" s="126"/>
       <c r="AA13" s="126"/>
@@ -3438,13 +3435,13 @@
       <c r="O14" s="89"/>
       <c r="P14" s="89"/>
       <c r="Q14" s="111"/>
-      <c r="R14" s="208"/>
-      <c r="S14" s="209"/>
+      <c r="R14" s="182"/>
+      <c r="S14" s="183"/>
       <c r="T14" s="120"/>
       <c r="U14" s="121"/>
       <c r="V14" s="121"/>
       <c r="W14" s="122"/>
-      <c r="X14" s="213"/>
+      <c r="X14" s="187"/>
       <c r="Y14" s="127"/>
       <c r="Z14" s="128"/>
       <c r="AA14" s="128"/>
@@ -3522,13 +3519,13 @@
       <c r="O15" s="71"/>
       <c r="P15" s="71"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="208"/>
-      <c r="S15" s="209"/>
+      <c r="R15" s="182"/>
+      <c r="S15" s="183"/>
       <c r="T15" s="166"/>
       <c r="U15" s="167"/>
       <c r="V15" s="167"/>
       <c r="W15" s="168"/>
-      <c r="X15" s="213"/>
+      <c r="X15" s="187"/>
       <c r="Y15" s="132"/>
       <c r="Z15" s="133"/>
       <c r="AA15" s="133"/>
@@ -3606,15 +3603,15 @@
       <c r="O16" s="71"/>
       <c r="P16" s="71"/>
       <c r="Q16" s="72"/>
-      <c r="R16" s="208"/>
-      <c r="S16" s="209"/>
+      <c r="R16" s="182"/>
+      <c r="S16" s="183"/>
       <c r="T16" s="174" t="s">
         <v>52</v>
       </c>
       <c r="U16" s="169"/>
       <c r="V16" s="169"/>
       <c r="W16" s="170"/>
-      <c r="X16" s="213"/>
+      <c r="X16" s="187"/>
       <c r="Y16" s="132"/>
       <c r="Z16" s="133"/>
       <c r="AA16" s="133"/>
@@ -3690,13 +3687,13 @@
       <c r="O17" s="71"/>
       <c r="P17" s="71"/>
       <c r="Q17" s="72"/>
-      <c r="R17" s="208"/>
-      <c r="S17" s="209"/>
+      <c r="R17" s="182"/>
+      <c r="S17" s="183"/>
       <c r="T17" s="171"/>
       <c r="U17" s="172"/>
       <c r="V17" s="172"/>
       <c r="W17" s="173"/>
-      <c r="X17" s="213"/>
+      <c r="X17" s="187"/>
       <c r="Y17" s="132"/>
       <c r="Z17" s="133"/>
       <c r="AA17" s="133"/>
@@ -3772,13 +3769,13 @@
       <c r="O18" s="71"/>
       <c r="P18" s="71"/>
       <c r="Q18" s="72"/>
-      <c r="R18" s="208"/>
-      <c r="S18" s="209"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="183"/>
       <c r="T18" s="73"/>
       <c r="U18" s="69"/>
       <c r="V18" s="69"/>
       <c r="W18" s="72"/>
-      <c r="X18" s="213"/>
+      <c r="X18" s="187"/>
       <c r="Y18" s="74"/>
       <c r="Z18" s="75"/>
       <c r="AA18" s="75"/>
@@ -3849,13 +3846,13 @@
       <c r="O19" s="77"/>
       <c r="P19" s="77"/>
       <c r="Q19" s="77"/>
-      <c r="R19" s="208"/>
-      <c r="S19" s="209"/>
+      <c r="R19" s="182"/>
+      <c r="S19" s="183"/>
       <c r="T19" s="66"/>
       <c r="U19" s="66"/>
       <c r="V19" s="66"/>
       <c r="W19" s="66"/>
-      <c r="X19" s="213"/>
+      <c r="X19" s="187"/>
       <c r="Y19" s="66"/>
       <c r="Z19" s="66"/>
       <c r="AA19" s="67"/>
@@ -3931,13 +3928,13 @@
       <c r="O20" s="80"/>
       <c r="P20" s="80"/>
       <c r="Q20" s="108"/>
-      <c r="R20" s="208"/>
-      <c r="S20" s="209"/>
+      <c r="R20" s="182"/>
+      <c r="S20" s="183"/>
       <c r="T20" s="82"/>
       <c r="U20" s="83"/>
       <c r="V20" s="83"/>
       <c r="W20" s="84"/>
-      <c r="X20" s="213"/>
+      <c r="X20" s="187"/>
       <c r="Y20" s="85"/>
       <c r="Z20" s="86"/>
       <c r="AA20" s="86"/>
@@ -4013,13 +4010,13 @@
       <c r="O21" s="89"/>
       <c r="P21" s="89"/>
       <c r="Q21" s="111"/>
-      <c r="R21" s="208"/>
-      <c r="S21" s="209"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="183"/>
       <c r="T21" s="91"/>
       <c r="U21" s="92"/>
       <c r="V21" s="92"/>
       <c r="W21" s="90"/>
-      <c r="X21" s="213"/>
+      <c r="X21" s="187"/>
       <c r="Y21" s="93"/>
       <c r="Z21" s="94"/>
       <c r="AA21" s="95"/>
@@ -4095,13 +4092,13 @@
       <c r="O22" s="89"/>
       <c r="P22" s="89"/>
       <c r="Q22" s="111"/>
-      <c r="R22" s="208"/>
-      <c r="S22" s="209"/>
+      <c r="R22" s="182"/>
+      <c r="S22" s="183"/>
       <c r="T22" s="91"/>
       <c r="U22" s="92"/>
       <c r="V22" s="92"/>
       <c r="W22" s="90"/>
-      <c r="X22" s="213"/>
+      <c r="X22" s="187"/>
       <c r="Y22" s="96"/>
       <c r="Z22" s="97"/>
       <c r="AA22" s="97"/>
@@ -4179,13 +4176,13 @@
         <v>51</v>
       </c>
       <c r="Q23" s="111"/>
-      <c r="R23" s="208"/>
-      <c r="S23" s="209"/>
+      <c r="R23" s="182"/>
+      <c r="S23" s="183"/>
       <c r="T23" s="91"/>
       <c r="U23" s="92"/>
       <c r="V23" s="92"/>
       <c r="W23" s="90"/>
-      <c r="X23" s="213"/>
+      <c r="X23" s="187"/>
       <c r="Y23" s="96"/>
       <c r="Z23" s="97"/>
       <c r="AA23" s="97"/>
@@ -4261,13 +4258,13 @@
       <c r="O24" s="89"/>
       <c r="P24" s="89"/>
       <c r="Q24" s="111"/>
-      <c r="R24" s="208"/>
-      <c r="S24" s="209"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="183"/>
       <c r="T24" s="91"/>
       <c r="U24" s="92"/>
       <c r="V24" s="92"/>
       <c r="W24" s="90"/>
-      <c r="X24" s="213"/>
+      <c r="X24" s="187"/>
       <c r="Y24" s="96"/>
       <c r="Z24" s="97"/>
       <c r="AA24" s="97"/>
@@ -4343,13 +4340,13 @@
       <c r="O25" s="89"/>
       <c r="P25" s="89"/>
       <c r="Q25" s="111"/>
-      <c r="R25" s="208"/>
-      <c r="S25" s="209"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="183"/>
       <c r="T25" s="91"/>
       <c r="U25" s="92"/>
       <c r="V25" s="92"/>
       <c r="W25" s="90"/>
-      <c r="X25" s="213"/>
+      <c r="X25" s="187"/>
       <c r="Y25" s="96"/>
       <c r="Z25" s="97"/>
       <c r="AA25" s="97"/>
@@ -4427,13 +4424,13 @@
       <c r="O26" s="98"/>
       <c r="P26" s="89"/>
       <c r="Q26" s="111"/>
-      <c r="R26" s="208"/>
-      <c r="S26" s="209"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="183"/>
       <c r="T26" s="91"/>
       <c r="U26" s="92"/>
       <c r="V26" s="92"/>
       <c r="W26" s="90"/>
-      <c r="X26" s="213"/>
+      <c r="X26" s="187"/>
       <c r="Y26" s="96"/>
       <c r="Z26" s="97"/>
       <c r="AA26" s="97"/>
@@ -4513,13 +4510,13 @@
       </c>
       <c r="P27" s="161"/>
       <c r="Q27" s="134"/>
-      <c r="R27" s="208"/>
-      <c r="S27" s="209"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="183"/>
       <c r="T27" s="91"/>
       <c r="U27" s="92"/>
       <c r="V27" s="92"/>
       <c r="W27" s="90"/>
-      <c r="X27" s="213"/>
+      <c r="X27" s="187"/>
       <c r="Y27" s="96"/>
       <c r="Z27" s="97"/>
       <c r="AA27" s="97"/>
@@ -4601,13 +4598,13 @@
       <c r="Q28" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="R28" s="208"/>
-      <c r="S28" s="209"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="183"/>
       <c r="T28" s="146"/>
       <c r="U28" s="92"/>
       <c r="V28" s="92"/>
       <c r="W28" s="90"/>
-      <c r="X28" s="213"/>
+      <c r="X28" s="187"/>
       <c r="Y28" s="96"/>
       <c r="Z28" s="97"/>
       <c r="AA28" s="97"/>
@@ -4683,13 +4680,13 @@
       </c>
       <c r="P29" s="161"/>
       <c r="Q29" s="134"/>
-      <c r="R29" s="208"/>
-      <c r="S29" s="209"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="183"/>
       <c r="T29" s="146"/>
       <c r="U29" s="92"/>
       <c r="V29" s="92"/>
       <c r="W29" s="90"/>
-      <c r="X29" s="213"/>
+      <c r="X29" s="187"/>
       <c r="Y29" s="96"/>
       <c r="Z29" s="97"/>
       <c r="AA29" s="97"/>
@@ -4765,13 +4762,13 @@
         <v>51</v>
       </c>
       <c r="Q30" s="134"/>
-      <c r="R30" s="208"/>
-      <c r="S30" s="209"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="183"/>
       <c r="T30" s="146"/>
       <c r="U30" s="92"/>
       <c r="V30" s="92"/>
       <c r="W30" s="90"/>
-      <c r="X30" s="213"/>
+      <c r="X30" s="187"/>
       <c r="Y30" s="96"/>
       <c r="Z30" s="97"/>
       <c r="AA30" s="97"/>
@@ -4847,13 +4844,13 @@
         <v>51</v>
       </c>
       <c r="Q31" s="134"/>
-      <c r="R31" s="208"/>
-      <c r="S31" s="209"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="183"/>
       <c r="T31" s="146"/>
       <c r="U31" s="92"/>
       <c r="V31" s="92"/>
       <c r="W31" s="90"/>
-      <c r="X31" s="213"/>
+      <c r="X31" s="187"/>
       <c r="Y31" s="96"/>
       <c r="Z31" s="97"/>
       <c r="AA31" s="97"/>
@@ -4929,13 +4926,13 @@
       <c r="Q32" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="R32" s="208"/>
-      <c r="S32" s="209"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="183"/>
       <c r="T32" s="146"/>
       <c r="U32" s="92"/>
       <c r="V32" s="92"/>
       <c r="W32" s="90"/>
-      <c r="X32" s="213"/>
+      <c r="X32" s="187"/>
       <c r="Y32" s="96"/>
       <c r="Z32" s="97"/>
       <c r="AA32" s="97"/>
@@ -5011,13 +5008,13 @@
       <c r="Q33" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="R33" s="208"/>
-      <c r="S33" s="209"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="183"/>
       <c r="T33" s="146"/>
       <c r="U33" s="92"/>
       <c r="V33" s="92"/>
       <c r="W33" s="90"/>
-      <c r="X33" s="213"/>
+      <c r="X33" s="187"/>
       <c r="Y33" s="96"/>
       <c r="Z33" s="97"/>
       <c r="AA33" s="97"/>
@@ -5091,15 +5088,15 @@
       <c r="O34" s="98"/>
       <c r="P34" s="98"/>
       <c r="Q34" s="162"/>
-      <c r="R34" s="208"/>
-      <c r="S34" s="209"/>
+      <c r="R34" s="182"/>
+      <c r="S34" s="183"/>
       <c r="T34" s="165" t="s">
         <v>78</v>
       </c>
       <c r="U34" s="138"/>
       <c r="V34" s="92"/>
       <c r="W34" s="90"/>
-      <c r="X34" s="213"/>
+      <c r="X34" s="187"/>
       <c r="Y34" s="96"/>
       <c r="Z34" s="97"/>
       <c r="AA34" s="97"/>
@@ -5170,13 +5167,13 @@
       <c r="O35" s="77"/>
       <c r="P35" s="77"/>
       <c r="Q35" s="77"/>
-      <c r="R35" s="208"/>
-      <c r="S35" s="209"/>
+      <c r="R35" s="182"/>
+      <c r="S35" s="183"/>
       <c r="T35" s="66"/>
       <c r="U35" s="66"/>
       <c r="V35" s="66"/>
       <c r="W35" s="66"/>
-      <c r="X35" s="213"/>
+      <c r="X35" s="187"/>
       <c r="Y35" s="66"/>
       <c r="Z35" s="66"/>
       <c r="AA35" s="99"/>
@@ -5250,15 +5247,15 @@
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
       <c r="Q36" s="81"/>
-      <c r="R36" s="208"/>
-      <c r="S36" s="209"/>
+      <c r="R36" s="182"/>
+      <c r="S36" s="183"/>
       <c r="T36" s="176" t="s">
         <v>51</v>
       </c>
       <c r="U36" s="179"/>
       <c r="V36" s="139"/>
       <c r="W36" s="140"/>
-      <c r="X36" s="213"/>
+      <c r="X36" s="187"/>
       <c r="Y36" s="85"/>
       <c r="Z36" s="86"/>
       <c r="AA36" s="86"/>
@@ -5332,15 +5329,15 @@
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
       <c r="Q37" s="90"/>
-      <c r="R37" s="208"/>
-      <c r="S37" s="209"/>
+      <c r="R37" s="182"/>
+      <c r="S37" s="183"/>
       <c r="T37" s="177" t="s">
         <v>56</v>
       </c>
       <c r="U37" s="113"/>
       <c r="V37" s="141"/>
       <c r="W37" s="142"/>
-      <c r="X37" s="213"/>
+      <c r="X37" s="187"/>
       <c r="Y37" s="96"/>
       <c r="Z37" s="97"/>
       <c r="AA37" s="97"/>
@@ -5414,15 +5411,15 @@
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
       <c r="Q38" s="81"/>
-      <c r="R38" s="208"/>
-      <c r="S38" s="209"/>
+      <c r="R38" s="182"/>
+      <c r="S38" s="183"/>
       <c r="T38" s="177" t="s">
         <v>78</v>
       </c>
       <c r="U38" s="113"/>
       <c r="V38" s="143"/>
       <c r="W38" s="142"/>
-      <c r="X38" s="213"/>
+      <c r="X38" s="187"/>
       <c r="Y38" s="96"/>
       <c r="Z38" s="97"/>
       <c r="AA38" s="97"/>
@@ -5496,8 +5493,8 @@
       <c r="O39" s="89"/>
       <c r="P39" s="89"/>
       <c r="Q39" s="81"/>
-      <c r="R39" s="208"/>
-      <c r="S39" s="209"/>
+      <c r="R39" s="182"/>
+      <c r="S39" s="183"/>
       <c r="T39" s="144"/>
       <c r="U39" s="177" t="s">
         <v>78</v>
@@ -5506,7 +5503,7 @@
         <v>78</v>
       </c>
       <c r="W39" s="145"/>
-      <c r="X39" s="213"/>
+      <c r="X39" s="187"/>
       <c r="Y39" s="96"/>
       <c r="Z39" s="97"/>
       <c r="AA39" s="97"/>
@@ -5575,13 +5572,13 @@
       <c r="O40" s="77"/>
       <c r="P40" s="77"/>
       <c r="Q40" s="77"/>
-      <c r="R40" s="208"/>
-      <c r="S40" s="209"/>
+      <c r="R40" s="182"/>
+      <c r="S40" s="183"/>
       <c r="T40" s="66"/>
       <c r="U40" s="66"/>
       <c r="V40" s="66"/>
       <c r="W40" s="66"/>
-      <c r="X40" s="213"/>
+      <c r="X40" s="187"/>
       <c r="Y40" s="66"/>
       <c r="Z40" s="66"/>
       <c r="AA40" s="99"/>
@@ -5657,13 +5654,13 @@
       <c r="O41" s="80"/>
       <c r="P41" s="80"/>
       <c r="Q41" s="81"/>
-      <c r="R41" s="208"/>
-      <c r="S41" s="209"/>
+      <c r="R41" s="182"/>
+      <c r="S41" s="183"/>
       <c r="T41" s="82"/>
       <c r="U41" s="101"/>
       <c r="V41" s="101"/>
       <c r="W41" s="81"/>
-      <c r="X41" s="213"/>
+      <c r="X41" s="187"/>
       <c r="Y41" s="85"/>
       <c r="Z41" s="86"/>
       <c r="AA41" s="86"/>
@@ -5751,8 +5748,8 @@
       <c r="Q42" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="R42" s="208"/>
-      <c r="S42" s="209"/>
+      <c r="R42" s="182"/>
+      <c r="S42" s="183"/>
       <c r="T42" s="175" t="s">
         <v>79</v>
       </c>
@@ -5760,10 +5757,10 @@
       <c r="V42" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="W42" s="180" t="s">
-        <v>87</v>
-      </c>
-      <c r="X42" s="213"/>
+      <c r="W42" s="165" t="s">
+        <v>85</v>
+      </c>
+      <c r="X42" s="187"/>
       <c r="Y42" s="96"/>
       <c r="Z42" s="97"/>
       <c r="AA42" s="97"/>
@@ -5843,13 +5840,13 @@
       <c r="O43" s="80"/>
       <c r="P43" s="80"/>
       <c r="Q43" s="81"/>
-      <c r="R43" s="208"/>
-      <c r="S43" s="209"/>
+      <c r="R43" s="182"/>
+      <c r="S43" s="183"/>
       <c r="T43" s="91"/>
       <c r="U43" s="92"/>
       <c r="V43" s="92"/>
       <c r="W43" s="90"/>
-      <c r="X43" s="213"/>
+      <c r="X43" s="187"/>
       <c r="Y43" s="96"/>
       <c r="Z43" s="97"/>
       <c r="AA43" s="97"/>
@@ -5925,13 +5922,13 @@
       <c r="O44" s="80"/>
       <c r="P44" s="80"/>
       <c r="Q44" s="81"/>
-      <c r="R44" s="208"/>
-      <c r="S44" s="209"/>
+      <c r="R44" s="182"/>
+      <c r="S44" s="183"/>
       <c r="T44" s="91"/>
       <c r="U44" s="92"/>
       <c r="V44" s="92"/>
       <c r="W44" s="90"/>
-      <c r="X44" s="213"/>
+      <c r="X44" s="187"/>
       <c r="Y44" s="96"/>
       <c r="Z44" s="97"/>
       <c r="AA44" s="97"/>
@@ -6007,13 +6004,13 @@
       <c r="Q45" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="R45" s="208"/>
-      <c r="S45" s="209"/>
+      <c r="R45" s="182"/>
+      <c r="S45" s="183"/>
       <c r="T45" s="91"/>
       <c r="U45" s="92"/>
       <c r="V45" s="92"/>
       <c r="W45" s="90"/>
-      <c r="X45" s="213"/>
+      <c r="X45" s="187"/>
       <c r="Y45" s="96"/>
       <c r="Z45" s="97"/>
       <c r="AA45" s="97"/>
@@ -6087,8 +6084,8 @@
       <c r="O46" s="80"/>
       <c r="P46" s="80"/>
       <c r="Q46" s="81"/>
-      <c r="R46" s="208"/>
-      <c r="S46" s="209"/>
+      <c r="R46" s="182"/>
+      <c r="S46" s="183"/>
       <c r="T46" s="91"/>
       <c r="U46" s="154" t="s">
         <v>57</v>
@@ -6096,8 +6093,10 @@
       <c r="V46" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="W46" s="90"/>
-      <c r="X46" s="213"/>
+      <c r="W46" s="165" t="s">
+        <v>78</v>
+      </c>
+      <c r="X46" s="187"/>
       <c r="Y46" s="96"/>
       <c r="Z46" s="97"/>
       <c r="AA46" s="97"/>
@@ -6169,15 +6168,15 @@
       <c r="O47" s="80"/>
       <c r="P47" s="80"/>
       <c r="Q47" s="81"/>
-      <c r="R47" s="210"/>
-      <c r="S47" s="211"/>
+      <c r="R47" s="184"/>
+      <c r="S47" s="185"/>
       <c r="T47" s="91"/>
       <c r="U47" s="92"/>
       <c r="V47" s="92"/>
       <c r="W47" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="X47" s="214"/>
+      <c r="X47" s="188"/>
       <c r="Y47" s="96"/>
       <c r="Z47" s="97"/>
       <c r="AA47" s="97"/>
@@ -6621,23 +6620,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="R11:S47"/>
-    <mergeCell ref="X11:X47"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="I8:AA8"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="AW8:BK8"/>
-    <mergeCell ref="AH8:AV8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="BB9:BF9"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P9:S9"/>
@@ -6654,6 +6636,23 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="AW8:BK8"/>
+    <mergeCell ref="AH8:AV8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="R11:S47"/>
+    <mergeCell ref="X11:X47"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="I8:AA8"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:H18 H20:H47">
     <cfRule type="colorScale" priority="17">
